--- a/Data_science_outputs/800pop/output_results/output_analysis_2.xlsx
+++ b/Data_science_outputs/800pop/output_results/output_analysis_2.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14084.41079696806</v>
+        <v>8497.212576938084</v>
       </c>
       <c r="C3" t="n">
         <v>6053.048928373055</v>
       </c>
       <c r="D3" t="n">
-        <v>6155.280090200009</v>
+        <v>576.0166857502905</v>
       </c>
       <c r="E3" t="n">
         <v>1851.629340267468</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7218.875648950777</v>
+        <v>3628.833582850662</v>
       </c>
       <c r="C4" t="n">
         <v>3268.087229988035</v>
       </c>
       <c r="D4" t="n">
-        <v>5873.152846868365</v>
+        <v>545.8823715427411</v>
       </c>
       <c r="E4" t="n">
         <v>682.8989126312767</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>555.0260000000001</v>
+        <v>888.021</v>
       </c>
       <c r="C5" t="n">
         <v>520.002</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7501.111500000003</v>
+        <v>5675.002</v>
       </c>
       <c r="C6" t="n">
         <v>3300.009</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14604.23900000002</v>
+        <v>7778.012000000001</v>
       </c>
       <c r="C7" t="n">
         <v>5227.275500000012</v>
       </c>
       <c r="D7" t="n">
-        <v>5760</v>
+        <v>720</v>
       </c>
       <c r="E7" t="n">
         <v>1845.001</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19091.017</v>
+        <v>11531.60025000007</v>
       </c>
       <c r="C8" t="n">
         <v>8732.504000000004</v>
       </c>
       <c r="D8" t="n">
-        <v>12480</v>
+        <v>1040</v>
       </c>
       <c r="E8" t="n">
         <v>2425.001</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29026.61600000009</v>
+        <v>19255.31000000004</v>
       </c>
       <c r="C9" t="n">
         <v>15120.29400000004</v>
       </c>
       <c r="D9" t="n">
-        <v>14180</v>
+        <v>5100</v>
       </c>
       <c r="E9" t="n">
         <v>4805.005</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>7402766314.885012</v>
+        <v>4466134930.441011</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>61014733.19800019</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4315055456774377</v>
+        <v>0.7143008952600087</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>3235215215.413999</v>
+        <v>302754370.0310001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4370278727978802</v>
+        <v>0.06778889906962673</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>973216381.2440002</v>
       </c>
       <c r="G13" t="n">
-        <v>0.131466581524682</v>
+        <v>0.2179102056703646</v>
       </c>
     </row>
   </sheetData>
